--- a/TestCase_SeleniumProject.xlsx
+++ b/TestCase_SeleniumProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C42797B-E597-40B2-B33F-6E63749BD17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD5A05-DF5B-4EB1-9A35-EDE8625A3186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6464FA25-26C5-4ECD-A605-F4826719BD8C}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,19 +213,6 @@
 </t>
   </si>
   <si>
-    <t>1.Open the browser and navigate to url
-2. Click on Signin Button on top right corner
-3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
-4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
-5. Click on 'Signin' button.
-6.Enter the username in searchbox
-7.Click on enter button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.User should be able to search the required user in searchbar
-</t>
-  </si>
-  <si>
     <t>Searching required companyname in searchbox</t>
   </si>
   <si>
@@ -260,6 +246,20 @@
 Password -
 SAF0451*
  UserName-Kiran Fakri</t>
+  </si>
+  <si>
+    <t>1.Open the browser and navigate to url
+2. Click on Signin Button on top right corner
+3. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+4. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+5. Click on 'Signin' button.
+6.Enter the username in searchbox
+7.Click on enter button
+8.Click on People button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User should be able to search the required user in searchbar and click on people button
+</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B022156C-B933-4FD3-B1D5-E753A1F4829D}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -987,13 +987,13 @@
         <v>45</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>14</v>
@@ -1010,19 +1010,19 @@
         <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>15</v>
